--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -527,6 +527,81 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -884,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9872,17 +9947,23 @@
       <c r="A152" t="s">
         <v>170</v>
       </c>
+      <c r="B152">
+        <v>34838.2</v>
+      </c>
+      <c r="C152">
+        <v>14681.1</v>
+      </c>
       <c r="D152">
-        <v>7099.9</v>
+        <v>7081.7</v>
       </c>
       <c r="E152">
         <v>27781</v>
       </c>
       <c r="F152">
-        <v>6664.9</v>
+        <v>6675.9</v>
       </c>
       <c r="G152">
-        <v>15566.7</v>
+        <v>15568.7</v>
       </c>
       <c r="H152">
         <v>3223</v>
@@ -9894,10 +9975,10 @@
         <v>1493</v>
       </c>
       <c r="K152">
-        <v>67866.2</v>
+        <v>67838.5</v>
       </c>
       <c r="L152">
-        <v>3791.2</v>
+        <v>3788.1</v>
       </c>
       <c r="M152">
         <v>1525.1</v>
@@ -9906,7 +9987,1521 @@
         <v>17503.3</v>
       </c>
       <c r="O152">
-        <v>1400.4</v>
+        <v>1399.7</v>
+      </c>
+      <c r="P152">
+        <v>65939.60000000001</v>
+      </c>
+      <c r="Q152">
+        <v>122515.7</v>
+      </c>
+      <c r="R152">
+        <v>1236</v>
+      </c>
+      <c r="S152">
+        <v>50869.5</v>
+      </c>
+      <c r="T152">
+        <v>17845.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
+      <c r="A153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153">
+        <v>35116.4</v>
+      </c>
+      <c r="C153">
+        <v>14761.3</v>
+      </c>
+      <c r="D153">
+        <v>7105.7</v>
+      </c>
+      <c r="E153">
+        <v>27641.8</v>
+      </c>
+      <c r="F153">
+        <v>6723.8</v>
+      </c>
+      <c r="G153">
+        <v>15555.1</v>
+      </c>
+      <c r="H153">
+        <v>3237.1</v>
+      </c>
+      <c r="I153">
+        <v>4934.5</v>
+      </c>
+      <c r="J153">
+        <v>1500.3</v>
+      </c>
+      <c r="K153">
+        <v>67805.8</v>
+      </c>
+      <c r="L153">
+        <v>3793.7</v>
+      </c>
+      <c r="M153">
+        <v>1540.5</v>
+      </c>
+      <c r="N153">
+        <v>17553.8</v>
+      </c>
+      <c r="O153">
+        <v>1408.8</v>
+      </c>
+      <c r="P153">
+        <v>65873.60000000001</v>
+      </c>
+      <c r="Q153">
+        <v>123576.6</v>
+      </c>
+      <c r="R153">
+        <v>1235.5</v>
+      </c>
+      <c r="S153">
+        <v>51633.9</v>
+      </c>
+      <c r="T153">
+        <v>17624.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
+      <c r="A154" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154">
+        <v>34792.7</v>
+      </c>
+      <c r="C154">
+        <v>14780.5</v>
+      </c>
+      <c r="D154">
+        <v>7123.9</v>
+      </c>
+      <c r="E154">
+        <v>27584.1</v>
+      </c>
+      <c r="F154">
+        <v>6746.2</v>
+      </c>
+      <c r="G154">
+        <v>15692.1</v>
+      </c>
+      <c r="H154">
+        <v>3280.4</v>
+      </c>
+      <c r="I154">
+        <v>4978.9</v>
+      </c>
+      <c r="J154">
+        <v>1491.3</v>
+      </c>
+      <c r="K154">
+        <v>68170.8</v>
+      </c>
+      <c r="L154">
+        <v>3810.6</v>
+      </c>
+      <c r="M154">
+        <v>1545.9</v>
+      </c>
+      <c r="N154">
+        <v>17623.9</v>
+      </c>
+      <c r="O154">
+        <v>1413.8</v>
+      </c>
+      <c r="P154">
+        <v>65088.1</v>
+      </c>
+      <c r="Q154">
+        <v>121801.2</v>
+      </c>
+      <c r="R154">
+        <v>1240.8</v>
+      </c>
+      <c r="S154">
+        <v>51195.4</v>
+      </c>
+      <c r="T154">
+        <v>17447.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155">
+        <v>35064.3</v>
+      </c>
+      <c r="C155">
+        <v>14895.1</v>
+      </c>
+      <c r="D155">
+        <v>7120.4</v>
+      </c>
+      <c r="E155">
+        <v>27728.1</v>
+      </c>
+      <c r="F155">
+        <v>6781.2</v>
+      </c>
+      <c r="G155">
+        <v>15744.7</v>
+      </c>
+      <c r="H155">
+        <v>3276.1</v>
+      </c>
+      <c r="I155">
+        <v>4948.7</v>
+      </c>
+      <c r="J155">
+        <v>1495.8</v>
+      </c>
+      <c r="K155">
+        <v>68256.8</v>
+      </c>
+      <c r="L155">
+        <v>3833.8</v>
+      </c>
+      <c r="M155">
+        <v>1527.7</v>
+      </c>
+      <c r="N155">
+        <v>17603.1</v>
+      </c>
+      <c r="O155">
+        <v>1431.8</v>
+      </c>
+      <c r="P155">
+        <v>66136.5</v>
+      </c>
+      <c r="Q155">
+        <v>121632.9</v>
+      </c>
+      <c r="R155">
+        <v>1227.4</v>
+      </c>
+      <c r="S155">
+        <v>51134.9</v>
+      </c>
+      <c r="T155">
+        <v>17331.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156">
+        <v>35208.5</v>
+      </c>
+      <c r="C156">
+        <v>14835.8</v>
+      </c>
+      <c r="D156">
+        <v>7123</v>
+      </c>
+      <c r="E156">
+        <v>27820</v>
+      </c>
+      <c r="F156">
+        <v>6817</v>
+      </c>
+      <c r="G156">
+        <v>15761.5</v>
+      </c>
+      <c r="H156">
+        <v>3270.4</v>
+      </c>
+      <c r="I156">
+        <v>4921.6</v>
+      </c>
+      <c r="J156">
+        <v>1489.8</v>
+      </c>
+      <c r="K156">
+        <v>68387.10000000001</v>
+      </c>
+      <c r="L156">
+        <v>3805.4</v>
+      </c>
+      <c r="M156">
+        <v>1521.7</v>
+      </c>
+      <c r="N156">
+        <v>17526.3</v>
+      </c>
+      <c r="O156">
+        <v>1434.8</v>
+      </c>
+      <c r="P156">
+        <v>65860.89999999999</v>
+      </c>
+      <c r="Q156">
+        <v>122810.4</v>
+      </c>
+      <c r="R156">
+        <v>1226.6</v>
+      </c>
+      <c r="S156">
+        <v>51113.9</v>
+      </c>
+      <c r="T156">
+        <v>17331.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157">
+        <v>35101.9</v>
+      </c>
+      <c r="C157">
+        <v>14860.2</v>
+      </c>
+      <c r="D157">
+        <v>7132.3</v>
+      </c>
+      <c r="F157">
+        <v>6813.2</v>
+      </c>
+      <c r="G157">
+        <v>15745.4</v>
+      </c>
+      <c r="H157">
+        <v>3260.4</v>
+      </c>
+      <c r="I157">
+        <v>4985.6</v>
+      </c>
+      <c r="J157">
+        <v>1496.7</v>
+      </c>
+      <c r="K157">
+        <v>68487.7</v>
+      </c>
+      <c r="L157">
+        <v>3835.1</v>
+      </c>
+      <c r="M157">
+        <v>1540.2</v>
+      </c>
+      <c r="N157">
+        <v>17485.2</v>
+      </c>
+      <c r="O157">
+        <v>1432.6</v>
+      </c>
+      <c r="P157">
+        <v>66096.39999999999</v>
+      </c>
+      <c r="Q157">
+        <v>123019.4</v>
+      </c>
+      <c r="R157">
+        <v>1229.4</v>
+      </c>
+      <c r="S157">
+        <v>50900.5</v>
+      </c>
+      <c r="T157">
+        <v>17205.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158">
+        <v>35264.7</v>
+      </c>
+      <c r="C158">
+        <v>14788.1</v>
+      </c>
+      <c r="D158">
+        <v>7161</v>
+      </c>
+      <c r="E158">
+        <v>27888.2</v>
+      </c>
+      <c r="F158">
+        <v>6820.2</v>
+      </c>
+      <c r="G158">
+        <v>15770.7</v>
+      </c>
+      <c r="H158">
+        <v>3243.2</v>
+      </c>
+      <c r="I158">
+        <v>5043.2</v>
+      </c>
+      <c r="K158">
+        <v>68635.2</v>
+      </c>
+      <c r="L158">
+        <v>3862.3</v>
+      </c>
+      <c r="M158">
+        <v>1542.6</v>
+      </c>
+      <c r="N158">
+        <v>17323.6</v>
+      </c>
+      <c r="O158">
+        <v>1437.5</v>
+      </c>
+      <c r="P158">
+        <v>68023.10000000001</v>
+      </c>
+      <c r="Q158">
+        <v>122202.5</v>
+      </c>
+      <c r="R158">
+        <v>1236.3</v>
+      </c>
+      <c r="S158">
+        <v>51114.2</v>
+      </c>
+      <c r="T158">
+        <v>17062.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159">
+        <v>35485</v>
+      </c>
+      <c r="C159">
+        <v>14765.1</v>
+      </c>
+      <c r="D159">
+        <v>7220.1</v>
+      </c>
+      <c r="E159">
+        <v>28070.5</v>
+      </c>
+      <c r="F159">
+        <v>6858</v>
+      </c>
+      <c r="G159">
+        <v>15826.1</v>
+      </c>
+      <c r="H159">
+        <v>3220.6</v>
+      </c>
+      <c r="I159">
+        <v>5015.3</v>
+      </c>
+      <c r="J159">
+        <v>1504.4</v>
+      </c>
+      <c r="K159">
+        <v>68813.7</v>
+      </c>
+      <c r="L159">
+        <v>3877.4</v>
+      </c>
+      <c r="M159">
+        <v>1532.7</v>
+      </c>
+      <c r="N159">
+        <v>17227.2</v>
+      </c>
+      <c r="O159">
+        <v>1410.9</v>
+      </c>
+      <c r="P159">
+        <v>69475.2</v>
+      </c>
+      <c r="Q159">
+        <v>122056.3</v>
+      </c>
+      <c r="R159">
+        <v>1246.7</v>
+      </c>
+      <c r="S159">
+        <v>51311.6</v>
+      </c>
+      <c r="T159">
+        <v>17003.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
+      <c r="A160" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160">
+        <v>35499.9</v>
+      </c>
+      <c r="C160">
+        <v>14816.3</v>
+      </c>
+      <c r="D160">
+        <v>7193.2</v>
+      </c>
+      <c r="E160">
+        <v>28015</v>
+      </c>
+      <c r="F160">
+        <v>6882.5</v>
+      </c>
+      <c r="G160">
+        <v>15937.5</v>
+      </c>
+      <c r="H160">
+        <v>3208.4</v>
+      </c>
+      <c r="I160">
+        <v>4973.4</v>
+      </c>
+      <c r="J160">
+        <v>1502</v>
+      </c>
+      <c r="K160">
+        <v>69076.8</v>
+      </c>
+      <c r="L160">
+        <v>3888.9</v>
+      </c>
+      <c r="N160">
+        <v>17219.9</v>
+      </c>
+      <c r="O160">
+        <v>1444.5</v>
+      </c>
+      <c r="P160">
+        <v>69492.60000000001</v>
+      </c>
+      <c r="Q160">
+        <v>120701</v>
+      </c>
+      <c r="R160">
+        <v>1258.5</v>
+      </c>
+      <c r="S160">
+        <v>51049.7</v>
+      </c>
+      <c r="T160">
+        <v>16829.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161">
+        <v>35515.4</v>
+      </c>
+      <c r="C161">
+        <v>14822.9</v>
+      </c>
+      <c r="D161">
+        <v>7218.7</v>
+      </c>
+      <c r="E161">
+        <v>27977.2</v>
+      </c>
+      <c r="F161">
+        <v>6896</v>
+      </c>
+      <c r="G161">
+        <v>15977.4</v>
+      </c>
+      <c r="H161">
+        <v>3171.3</v>
+      </c>
+      <c r="I161">
+        <v>4946</v>
+      </c>
+      <c r="J161">
+        <v>1505.1</v>
+      </c>
+      <c r="K161">
+        <v>69254.39999999999</v>
+      </c>
+      <c r="L161">
+        <v>3873</v>
+      </c>
+      <c r="M161">
+        <v>1528.3</v>
+      </c>
+      <c r="N161">
+        <v>16982.1</v>
+      </c>
+      <c r="O161">
+        <v>1447.6</v>
+      </c>
+      <c r="P161">
+        <v>69544.8</v>
+      </c>
+      <c r="Q161">
+        <v>121193.8</v>
+      </c>
+      <c r="R161">
+        <v>1268.8</v>
+      </c>
+      <c r="S161">
+        <v>51490.9</v>
+      </c>
+      <c r="T161">
+        <v>16771.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162">
+        <v>35625.4</v>
+      </c>
+      <c r="C162">
+        <v>14793.8</v>
+      </c>
+      <c r="D162">
+        <v>7154</v>
+      </c>
+      <c r="E162">
+        <v>27523.2</v>
+      </c>
+      <c r="F162">
+        <v>6838.8</v>
+      </c>
+      <c r="G162">
+        <v>15925.7</v>
+      </c>
+      <c r="I162">
+        <v>4941.1</v>
+      </c>
+      <c r="J162">
+        <v>1502.9</v>
+      </c>
+      <c r="K162">
+        <v>68811.8</v>
+      </c>
+      <c r="L162">
+        <v>3895.3</v>
+      </c>
+      <c r="M162">
+        <v>1531.2</v>
+      </c>
+      <c r="N162">
+        <v>16858.8</v>
+      </c>
+      <c r="O162">
+        <v>1455.3</v>
+      </c>
+      <c r="Q162">
+        <v>119180</v>
+      </c>
+      <c r="S162">
+        <v>51384.9</v>
+      </c>
+      <c r="T162">
+        <v>16736.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163">
+        <v>35343.3</v>
+      </c>
+      <c r="C163">
+        <v>14656.2</v>
+      </c>
+      <c r="D163">
+        <v>7181.1</v>
+      </c>
+      <c r="E163">
+        <v>27424.5</v>
+      </c>
+      <c r="F163">
+        <v>6819.8</v>
+      </c>
+      <c r="G163">
+        <v>15922</v>
+      </c>
+      <c r="H163">
+        <v>3143.1</v>
+      </c>
+      <c r="I163">
+        <v>4837.4</v>
+      </c>
+      <c r="J163">
+        <v>1523.6</v>
+      </c>
+      <c r="K163">
+        <v>69160</v>
+      </c>
+      <c r="L163">
+        <v>3943</v>
+      </c>
+      <c r="M163">
+        <v>1544.2</v>
+      </c>
+      <c r="N163">
+        <v>16661.4</v>
+      </c>
+      <c r="O163">
+        <v>1461.7</v>
+      </c>
+      <c r="P163">
+        <v>67999</v>
+      </c>
+      <c r="Q163">
+        <v>117903.8</v>
+      </c>
+      <c r="R163">
+        <v>1301.7</v>
+      </c>
+      <c r="S163">
+        <v>51576.6</v>
+      </c>
+      <c r="T163">
+        <v>16359.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164">
+        <v>34960.7</v>
+      </c>
+      <c r="C164">
+        <v>14525.9</v>
+      </c>
+      <c r="D164">
+        <v>7169.3</v>
+      </c>
+      <c r="E164">
+        <v>27585.9</v>
+      </c>
+      <c r="F164">
+        <v>6770.1</v>
+      </c>
+      <c r="G164">
+        <v>15966</v>
+      </c>
+      <c r="H164">
+        <v>3158.9</v>
+      </c>
+      <c r="I164">
+        <v>4894.2</v>
+      </c>
+      <c r="J164">
+        <v>1525.2</v>
+      </c>
+      <c r="K164">
+        <v>68796.2</v>
+      </c>
+      <c r="L164">
+        <v>3925.2</v>
+      </c>
+      <c r="M164">
+        <v>1551.9</v>
+      </c>
+      <c r="N164">
+        <v>16826.3</v>
+      </c>
+      <c r="O164">
+        <v>1449.6</v>
+      </c>
+      <c r="P164">
+        <v>67094.3</v>
+      </c>
+      <c r="Q164">
+        <v>116642.6</v>
+      </c>
+      <c r="R164">
+        <v>1325.9</v>
+      </c>
+      <c r="S164">
+        <v>51986.1</v>
+      </c>
+      <c r="T164">
+        <v>15916.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165">
+        <v>34894.1</v>
+      </c>
+      <c r="C165">
+        <v>14541.8</v>
+      </c>
+      <c r="D165">
+        <v>7058.9</v>
+      </c>
+      <c r="E165">
+        <v>27281.2</v>
+      </c>
+      <c r="F165">
+        <v>6605.9</v>
+      </c>
+      <c r="G165">
+        <v>15765.8</v>
+      </c>
+      <c r="H165">
+        <v>3097.8</v>
+      </c>
+      <c r="I165">
+        <v>4862.1</v>
+      </c>
+      <c r="J165">
+        <v>1515</v>
+      </c>
+      <c r="K165">
+        <v>68035.60000000001</v>
+      </c>
+      <c r="L165">
+        <v>3854</v>
+      </c>
+      <c r="M165">
+        <v>1544.3</v>
+      </c>
+      <c r="N165">
+        <v>16375.4</v>
+      </c>
+      <c r="O165">
+        <v>1439.9</v>
+      </c>
+      <c r="P165">
+        <v>66681.7</v>
+      </c>
+      <c r="Q165">
+        <v>117164.7</v>
+      </c>
+      <c r="R165">
+        <v>1329.7</v>
+      </c>
+      <c r="S165">
+        <v>51099.4</v>
+      </c>
+      <c r="T165">
+        <v>15529.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166">
+        <v>35120.1</v>
+      </c>
+      <c r="C166">
+        <v>14714.7</v>
+      </c>
+      <c r="D166">
+        <v>7087.9</v>
+      </c>
+      <c r="E166">
+        <v>27013.3</v>
+      </c>
+      <c r="F166">
+        <v>6626.1</v>
+      </c>
+      <c r="G166">
+        <v>15808</v>
+      </c>
+      <c r="H166">
+        <v>3060.5</v>
+      </c>
+      <c r="I166">
+        <v>4769.3</v>
+      </c>
+      <c r="J166">
+        <v>1518</v>
+      </c>
+      <c r="K166">
+        <v>67966.10000000001</v>
+      </c>
+      <c r="L166">
+        <v>3832.7</v>
+      </c>
+      <c r="M166">
+        <v>1553.2</v>
+      </c>
+      <c r="N166">
+        <v>16341.9</v>
+      </c>
+      <c r="O166">
+        <v>1444.6</v>
+      </c>
+      <c r="P166">
+        <v>67822.2</v>
+      </c>
+      <c r="Q166">
+        <v>118052.8</v>
+      </c>
+      <c r="R166">
+        <v>1326.9</v>
+      </c>
+      <c r="S166">
+        <v>51414.3</v>
+      </c>
+      <c r="T166">
+        <v>15532.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167">
+        <v>35335.7</v>
+      </c>
+      <c r="C167">
+        <v>14942.7</v>
+      </c>
+      <c r="D167">
+        <v>7109</v>
+      </c>
+      <c r="E167">
+        <v>27494.2</v>
+      </c>
+      <c r="F167">
+        <v>6683.1</v>
+      </c>
+      <c r="G167">
+        <v>15852.8</v>
+      </c>
+      <c r="H167">
+        <v>3090.2</v>
+      </c>
+      <c r="I167">
+        <v>4835.9</v>
+      </c>
+      <c r="J167">
+        <v>1522.4</v>
+      </c>
+      <c r="K167">
+        <v>68763</v>
+      </c>
+      <c r="L167">
+        <v>3883</v>
+      </c>
+      <c r="M167">
+        <v>1582.1</v>
+      </c>
+      <c r="N167">
+        <v>16741.8</v>
+      </c>
+      <c r="O167">
+        <v>1459.3</v>
+      </c>
+      <c r="P167">
+        <v>69050.3</v>
+      </c>
+      <c r="Q167">
+        <v>117471.7</v>
+      </c>
+      <c r="R167">
+        <v>1334.5</v>
+      </c>
+      <c r="S167">
+        <v>52054.6</v>
+      </c>
+      <c r="T167">
+        <v>16211.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168">
+        <v>35366.3</v>
+      </c>
+      <c r="C168">
+        <v>15019.8</v>
+      </c>
+      <c r="D168">
+        <v>7125.8</v>
+      </c>
+      <c r="E168">
+        <v>27732.1</v>
+      </c>
+      <c r="F168">
+        <v>6664.3</v>
+      </c>
+      <c r="G168">
+        <v>15905.9</v>
+      </c>
+      <c r="H168">
+        <v>3138.3</v>
+      </c>
+      <c r="I168">
+        <v>4888.4</v>
+      </c>
+      <c r="J168">
+        <v>1553.4</v>
+      </c>
+      <c r="K168">
+        <v>69093.60000000001</v>
+      </c>
+      <c r="L168">
+        <v>3888.9</v>
+      </c>
+      <c r="M168">
+        <v>1587</v>
+      </c>
+      <c r="N168">
+        <v>16818.7</v>
+      </c>
+      <c r="O168">
+        <v>1465.9</v>
+      </c>
+      <c r="P168">
+        <v>71353.8</v>
+      </c>
+      <c r="Q168">
+        <v>120210.8</v>
+      </c>
+      <c r="R168">
+        <v>1328.3</v>
+      </c>
+      <c r="S168">
+        <v>51985</v>
+      </c>
+      <c r="T168">
+        <v>17034</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169">
+        <v>35405.5</v>
+      </c>
+      <c r="C169">
+        <v>15041.9</v>
+      </c>
+      <c r="D169">
+        <v>7150.1</v>
+      </c>
+      <c r="E169">
+        <v>27724.8</v>
+      </c>
+      <c r="F169">
+        <v>6676.5</v>
+      </c>
+      <c r="G169">
+        <v>15860.7</v>
+      </c>
+      <c r="H169">
+        <v>3146.8</v>
+      </c>
+      <c r="I169">
+        <v>4898.2</v>
+      </c>
+      <c r="J169">
+        <v>1569.8</v>
+      </c>
+      <c r="K169">
+        <v>69728.8</v>
+      </c>
+      <c r="L169">
+        <v>3886.6</v>
+      </c>
+      <c r="M169">
+        <v>1600.5</v>
+      </c>
+      <c r="N169">
+        <v>17045.9</v>
+      </c>
+      <c r="O169">
+        <v>1453.3</v>
+      </c>
+      <c r="P169">
+        <v>72009.10000000001</v>
+      </c>
+      <c r="Q169">
+        <v>120817.7</v>
+      </c>
+      <c r="R169">
+        <v>1329.8</v>
+      </c>
+      <c r="S169">
+        <v>52345.4</v>
+      </c>
+      <c r="T169">
+        <v>16991.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170">
+        <v>35213.1</v>
+      </c>
+      <c r="C170">
+        <v>14945.8</v>
+      </c>
+      <c r="D170">
+        <v>7125</v>
+      </c>
+      <c r="E170">
+        <v>27742.3</v>
+      </c>
+      <c r="F170">
+        <v>6666</v>
+      </c>
+      <c r="G170">
+        <v>15793.6</v>
+      </c>
+      <c r="H170">
+        <v>3128.5</v>
+      </c>
+      <c r="I170">
+        <v>4801.6</v>
+      </c>
+      <c r="J170">
+        <v>1585.7</v>
+      </c>
+      <c r="K170">
+        <v>69455</v>
+      </c>
+      <c r="L170">
+        <v>3851.6</v>
+      </c>
+      <c r="M170">
+        <v>1601.9</v>
+      </c>
+      <c r="N170">
+        <v>17067</v>
+      </c>
+      <c r="O170">
+        <v>1448.5</v>
+      </c>
+      <c r="P170">
+        <v>71550.5</v>
+      </c>
+      <c r="Q170">
+        <v>118724</v>
+      </c>
+      <c r="R170">
+        <v>1314</v>
+      </c>
+      <c r="S170">
+        <v>52290.7</v>
+      </c>
+      <c r="T170">
+        <v>16893.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="A171" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171">
+        <v>35455.8</v>
+      </c>
+      <c r="C171">
+        <v>15129.5</v>
+      </c>
+      <c r="D171">
+        <v>7148</v>
+      </c>
+      <c r="E171">
+        <v>27641.1</v>
+      </c>
+      <c r="F171">
+        <v>6681.9</v>
+      </c>
+      <c r="G171">
+        <v>15851.8</v>
+      </c>
+      <c r="H171">
+        <v>3133.9</v>
+      </c>
+      <c r="I171">
+        <v>4827</v>
+      </c>
+      <c r="J171">
+        <v>1590.2</v>
+      </c>
+      <c r="K171">
+        <v>69774.89999999999</v>
+      </c>
+      <c r="L171">
+        <v>3887.4</v>
+      </c>
+      <c r="M171">
+        <v>1611.2</v>
+      </c>
+      <c r="N171">
+        <v>17209.9</v>
+      </c>
+      <c r="O171">
+        <v>1458.2</v>
+      </c>
+      <c r="P171">
+        <v>73203.60000000001</v>
+      </c>
+      <c r="Q171">
+        <v>120677.6</v>
+      </c>
+      <c r="R171">
+        <v>1325.5</v>
+      </c>
+      <c r="S171">
+        <v>52425.6</v>
+      </c>
+      <c r="T171">
+        <v>17444.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
+      <c r="A172" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172">
+        <v>35399.8</v>
+      </c>
+      <c r="C172">
+        <v>15265.9</v>
+      </c>
+      <c r="E172">
+        <v>27789.3</v>
+      </c>
+      <c r="F172">
+        <v>6687.3</v>
+      </c>
+      <c r="G172">
+        <v>15887.3</v>
+      </c>
+      <c r="H172">
+        <v>3144.2</v>
+      </c>
+      <c r="I172">
+        <v>4813.3</v>
+      </c>
+      <c r="J172">
+        <v>1601.4</v>
+      </c>
+      <c r="K172">
+        <v>70526.7</v>
+      </c>
+      <c r="L172">
+        <v>3928.5</v>
+      </c>
+      <c r="M172">
+        <v>1633.8</v>
+      </c>
+      <c r="N172">
+        <v>17396.5</v>
+      </c>
+      <c r="P172">
+        <v>76329.39999999999</v>
+      </c>
+      <c r="Q172">
+        <v>119740</v>
+      </c>
+      <c r="R172">
+        <v>1322.6</v>
+      </c>
+      <c r="S172">
+        <v>52602.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
+      <c r="A173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173">
+        <v>35360.7</v>
+      </c>
+      <c r="C173">
+        <v>15259.2</v>
+      </c>
+      <c r="D173">
+        <v>7119.7</v>
+      </c>
+      <c r="E173">
+        <v>28089.5</v>
+      </c>
+      <c r="F173">
+        <v>6680.2</v>
+      </c>
+      <c r="G173">
+        <v>15835.1</v>
+      </c>
+      <c r="H173">
+        <v>3199.3</v>
+      </c>
+      <c r="I173">
+        <v>4805.6</v>
+      </c>
+      <c r="K173">
+        <v>70930.2</v>
+      </c>
+      <c r="L173">
+        <v>3919</v>
+      </c>
+      <c r="M173">
+        <v>1638.8</v>
+      </c>
+      <c r="N173">
+        <v>17490.3</v>
+      </c>
+      <c r="O173">
+        <v>1472.1</v>
+      </c>
+      <c r="P173">
+        <v>76451.7</v>
+      </c>
+      <c r="Q173">
+        <v>118781</v>
+      </c>
+      <c r="R173">
+        <v>1320</v>
+      </c>
+      <c r="S173">
+        <v>53304.7</v>
+      </c>
+      <c r="T173">
+        <v>17653.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B174">
+        <v>35312.5</v>
+      </c>
+      <c r="C174">
+        <v>15309.4</v>
+      </c>
+      <c r="D174">
+        <v>7149.8</v>
+      </c>
+      <c r="E174">
+        <v>28451</v>
+      </c>
+      <c r="F174">
+        <v>6758.7</v>
+      </c>
+      <c r="G174">
+        <v>15824.3</v>
+      </c>
+      <c r="H174">
+        <v>3207</v>
+      </c>
+      <c r="I174">
+        <v>4869.5</v>
+      </c>
+      <c r="J174">
+        <v>1586.9</v>
+      </c>
+      <c r="K174">
+        <v>70995.7</v>
+      </c>
+      <c r="L174">
+        <v>3971</v>
+      </c>
+      <c r="M174">
+        <v>1634.5</v>
+      </c>
+      <c r="N174">
+        <v>17474</v>
+      </c>
+      <c r="O174">
+        <v>1474.1</v>
+      </c>
+      <c r="P174">
+        <v>75232.60000000001</v>
+      </c>
+      <c r="Q174">
+        <v>119395.6</v>
+      </c>
+      <c r="R174">
+        <v>1321.3</v>
+      </c>
+      <c r="S174">
+        <v>52215.5</v>
+      </c>
+      <c r="T174">
+        <v>17572.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175">
+        <v>35443.8</v>
+      </c>
+      <c r="C175">
+        <v>15331.2</v>
+      </c>
+      <c r="D175">
+        <v>7163.9</v>
+      </c>
+      <c r="E175">
+        <v>28543.5</v>
+      </c>
+      <c r="F175">
+        <v>6763.1</v>
+      </c>
+      <c r="G175">
+        <v>15840.6</v>
+      </c>
+      <c r="H175">
+        <v>3175.9</v>
+      </c>
+      <c r="I175">
+        <v>4869.4</v>
+      </c>
+      <c r="J175">
+        <v>1582.2</v>
+      </c>
+      <c r="K175">
+        <v>71431.2</v>
+      </c>
+      <c r="L175">
+        <v>3990.8</v>
+      </c>
+      <c r="M175">
+        <v>1647.8</v>
+      </c>
+      <c r="N175">
+        <v>17319.8</v>
+      </c>
+      <c r="O175">
+        <v>1479.1</v>
+      </c>
+      <c r="P175">
+        <v>75115.10000000001</v>
+      </c>
+      <c r="Q175">
+        <v>116677.1</v>
+      </c>
+      <c r="R175">
+        <v>1331.9</v>
+      </c>
+      <c r="S175">
+        <v>52087.5</v>
+      </c>
+      <c r="T175">
+        <v>17508.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176">
+        <v>35369.1</v>
+      </c>
+      <c r="C176">
+        <v>15363.5</v>
+      </c>
+      <c r="D176">
+        <v>7138.4</v>
+      </c>
+      <c r="E176">
+        <v>29128.1</v>
+      </c>
+      <c r="F176">
+        <v>6690</v>
+      </c>
+      <c r="G176">
+        <v>15781.2</v>
+      </c>
+      <c r="H176">
+        <v>3201.1</v>
+      </c>
+      <c r="I176">
+        <v>4843.1</v>
+      </c>
+      <c r="J176">
+        <v>1589.2</v>
+      </c>
+      <c r="K176">
+        <v>71177.3</v>
+      </c>
+      <c r="L176">
+        <v>4001.7</v>
+      </c>
+      <c r="M176">
+        <v>1650.3</v>
+      </c>
+      <c r="N176">
+        <v>17516.9</v>
+      </c>
+      <c r="O176">
+        <v>1468.7</v>
+      </c>
+      <c r="P176">
+        <v>74735</v>
+      </c>
+      <c r="Q176">
+        <v>116933.2</v>
+      </c>
+      <c r="R176">
+        <v>1327.5</v>
+      </c>
+      <c r="S176">
+        <v>51835.1</v>
+      </c>
+      <c r="T176">
+        <v>17678.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177">
+        <v>7185.7</v>
+      </c>
+      <c r="E177">
+        <v>29659.9</v>
+      </c>
+      <c r="F177">
+        <v>6741.5</v>
+      </c>
+      <c r="G177">
+        <v>15891.2</v>
+      </c>
+      <c r="H177">
+        <v>3203.3</v>
+      </c>
+      <c r="I177">
+        <v>4933.7</v>
+      </c>
+      <c r="J177">
+        <v>1581.6</v>
+      </c>
+      <c r="K177">
+        <v>71737.60000000001</v>
+      </c>
+      <c r="L177">
+        <v>4008.5</v>
+      </c>
+      <c r="M177">
+        <v>1648.4</v>
+      </c>
+      <c r="N177">
+        <v>17495.3</v>
+      </c>
+      <c r="O177">
+        <v>1473.6</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:T182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11463,21 +11478,21 @@
         <v>17678.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>195</v>
       </c>
       <c r="D177">
-        <v>7185.7</v>
+        <v>7187.2</v>
       </c>
       <c r="E177">
         <v>29659.9</v>
       </c>
       <c r="F177">
-        <v>6741.5</v>
+        <v>6743.5</v>
       </c>
       <c r="G177">
-        <v>15891.2</v>
+        <v>15932.1</v>
       </c>
       <c r="H177">
         <v>3203.3</v>
@@ -11489,10 +11504,10 @@
         <v>1581.6</v>
       </c>
       <c r="K177">
-        <v>71737.60000000001</v>
+        <v>72170.39999999999</v>
       </c>
       <c r="L177">
-        <v>4008.5</v>
+        <v>4028.3</v>
       </c>
       <c r="M177">
         <v>1648.4</v>
@@ -11501,7 +11516,308 @@
         <v>17495.3</v>
       </c>
       <c r="O177">
-        <v>1473.6</v>
+        <v>1474.7</v>
+      </c>
+      <c r="P177">
+        <v>76003</v>
+      </c>
+      <c r="Q177">
+        <v>117868.6</v>
+      </c>
+      <c r="R177">
+        <v>1327.1</v>
+      </c>
+      <c r="S177">
+        <v>52283.1</v>
+      </c>
+      <c r="T177">
+        <v>17712.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178">
+        <v>35100</v>
+      </c>
+      <c r="C178">
+        <v>15374.3</v>
+      </c>
+      <c r="D178">
+        <v>7149.4</v>
+      </c>
+      <c r="E178">
+        <v>29916.1</v>
+      </c>
+      <c r="F178">
+        <v>6726.1</v>
+      </c>
+      <c r="G178">
+        <v>15843.1</v>
+      </c>
+      <c r="H178">
+        <v>3187.4</v>
+      </c>
+      <c r="I178">
+        <v>4992.8</v>
+      </c>
+      <c r="J178">
+        <v>1583.5</v>
+      </c>
+      <c r="K178">
+        <v>71799</v>
+      </c>
+      <c r="L178">
+        <v>4010.2</v>
+      </c>
+      <c r="M178">
+        <v>1636.5</v>
+      </c>
+      <c r="N178">
+        <v>17428.9</v>
+      </c>
+      <c r="O178">
+        <v>1454.7</v>
+      </c>
+      <c r="P178">
+        <v>79004.8</v>
+      </c>
+      <c r="R178">
+        <v>1321</v>
+      </c>
+      <c r="S178">
+        <v>51950.5</v>
+      </c>
+      <c r="T178">
+        <v>17598.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179">
+        <v>35031.1</v>
+      </c>
+      <c r="C179">
+        <v>15286.6</v>
+      </c>
+      <c r="D179">
+        <v>7095.5</v>
+      </c>
+      <c r="E179">
+        <v>30181.2</v>
+      </c>
+      <c r="F179">
+        <v>6668.9</v>
+      </c>
+      <c r="G179">
+        <v>15610.3</v>
+      </c>
+      <c r="H179">
+        <v>3163</v>
+      </c>
+      <c r="I179">
+        <v>4972.1</v>
+      </c>
+      <c r="J179">
+        <v>1597.6</v>
+      </c>
+      <c r="K179">
+        <v>70970.39999999999</v>
+      </c>
+      <c r="L179">
+        <v>4017.4</v>
+      </c>
+      <c r="M179">
+        <v>1640.5</v>
+      </c>
+      <c r="N179">
+        <v>17270.5</v>
+      </c>
+      <c r="O179">
+        <v>1433.9</v>
+      </c>
+      <c r="P179">
+        <v>77459</v>
+      </c>
+      <c r="Q179">
+        <v>113412.8</v>
+      </c>
+      <c r="R179">
+        <v>1320.4</v>
+      </c>
+      <c r="S179">
+        <v>51469.7</v>
+      </c>
+      <c r="T179">
+        <v>17410.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180">
+        <v>34879.4</v>
+      </c>
+      <c r="C180">
+        <v>15248.3</v>
+      </c>
+      <c r="D180">
+        <v>7024.2</v>
+      </c>
+      <c r="E180">
+        <v>30008.2</v>
+      </c>
+      <c r="F180">
+        <v>6684.7</v>
+      </c>
+      <c r="G180">
+        <v>15623.2</v>
+      </c>
+      <c r="H180">
+        <v>3114.7</v>
+      </c>
+      <c r="I180">
+        <v>4970</v>
+      </c>
+      <c r="J180">
+        <v>1578.9</v>
+      </c>
+      <c r="K180">
+        <v>70980.2</v>
+      </c>
+      <c r="L180">
+        <v>3993.6</v>
+      </c>
+      <c r="M180">
+        <v>1629.1</v>
+      </c>
+      <c r="N180">
+        <v>17304.3</v>
+      </c>
+      <c r="O180">
+        <v>1452.7</v>
+      </c>
+      <c r="P180">
+        <v>77127</v>
+      </c>
+      <c r="Q180">
+        <v>115360.9</v>
+      </c>
+      <c r="R180">
+        <v>1322.8</v>
+      </c>
+      <c r="S180">
+        <v>51395.1</v>
+      </c>
+      <c r="T180">
+        <v>17550.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181">
+        <v>34607.7</v>
+      </c>
+      <c r="C181">
+        <v>15115.5</v>
+      </c>
+      <c r="D181">
+        <v>7029.2</v>
+      </c>
+      <c r="E181">
+        <v>30381.8</v>
+      </c>
+      <c r="F181">
+        <v>6663.8</v>
+      </c>
+      <c r="G181">
+        <v>15609.8</v>
+      </c>
+      <c r="H181">
+        <v>3125.8</v>
+      </c>
+      <c r="I181">
+        <v>5013.5</v>
+      </c>
+      <c r="J181">
+        <v>1576</v>
+      </c>
+      <c r="K181">
+        <v>71091.2</v>
+      </c>
+      <c r="L181">
+        <v>4002.7</v>
+      </c>
+      <c r="M181">
+        <v>1635.4</v>
+      </c>
+      <c r="N181">
+        <v>17474.6</v>
+      </c>
+      <c r="O181">
+        <v>1438.7</v>
+      </c>
+      <c r="P181">
+        <v>75895</v>
+      </c>
+      <c r="Q181">
+        <v>114285.9</v>
+      </c>
+      <c r="R181">
+        <v>1320.5</v>
+      </c>
+      <c r="S181">
+        <v>51521.8</v>
+      </c>
+      <c r="T181">
+        <v>17715.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="D182">
+        <v>7083.1</v>
+      </c>
+      <c r="E182">
+        <v>30447.4</v>
+      </c>
+      <c r="F182">
+        <v>6721</v>
+      </c>
+      <c r="G182">
+        <v>15771.3</v>
+      </c>
+      <c r="H182">
+        <v>3127.9</v>
+      </c>
+      <c r="I182">
+        <v>4991.7</v>
+      </c>
+      <c r="J182">
+        <v>1570.1</v>
+      </c>
+      <c r="K182">
+        <v>71569.3</v>
+      </c>
+      <c r="L182">
+        <v>4021.3</v>
+      </c>
+      <c r="M182">
+        <v>1633.8</v>
+      </c>
+      <c r="N182">
+        <v>17446.3</v>
+      </c>
+      <c r="O182">
+        <v>1443.8</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Serie</t>
   </si>
@@ -617,6 +617,21 @@
   </si>
   <si>
     <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -974,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T182"/>
+  <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11783,17 +11798,23 @@
       <c r="A182" t="s">
         <v>200</v>
       </c>
+      <c r="B182">
+        <v>34869.6</v>
+      </c>
+      <c r="C182">
+        <v>15105.6</v>
+      </c>
       <c r="D182">
-        <v>7083.1</v>
+        <v>7068.4</v>
       </c>
       <c r="E182">
         <v>30447.4</v>
       </c>
       <c r="F182">
-        <v>6721</v>
+        <v>6676.9</v>
       </c>
       <c r="G182">
-        <v>15771.3</v>
+        <v>15701.4</v>
       </c>
       <c r="H182">
         <v>3127.9</v>
@@ -11805,10 +11826,10 @@
         <v>1570.1</v>
       </c>
       <c r="K182">
-        <v>71569.3</v>
+        <v>71804</v>
       </c>
       <c r="L182">
-        <v>4021.3</v>
+        <v>4041.2</v>
       </c>
       <c r="M182">
         <v>1633.8</v>
@@ -11817,7 +11838,293 @@
         <v>17446.3</v>
       </c>
       <c r="O182">
-        <v>1443.8</v>
+        <v>1438.3</v>
+      </c>
+      <c r="P182">
+        <v>80065.89999999999</v>
+      </c>
+      <c r="Q182">
+        <v>116403.7</v>
+      </c>
+      <c r="R182">
+        <v>1312.4</v>
+      </c>
+      <c r="S182">
+        <v>51496.7</v>
+      </c>
+      <c r="T182">
+        <v>18063.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183">
+        <v>34577.6</v>
+      </c>
+      <c r="C183">
+        <v>15037.8</v>
+      </c>
+      <c r="D183">
+        <v>7034.1</v>
+      </c>
+      <c r="E183">
+        <v>30670.1</v>
+      </c>
+      <c r="F183">
+        <v>6653</v>
+      </c>
+      <c r="G183">
+        <v>15723</v>
+      </c>
+      <c r="H183">
+        <v>3148.8</v>
+      </c>
+      <c r="I183">
+        <v>4917.2</v>
+      </c>
+      <c r="J183">
+        <v>1555.5</v>
+      </c>
+      <c r="K183">
+        <v>72040.7</v>
+      </c>
+      <c r="L183">
+        <v>4055.7</v>
+      </c>
+      <c r="M183">
+        <v>1623.8</v>
+      </c>
+      <c r="N183">
+        <v>17434.9</v>
+      </c>
+      <c r="O183">
+        <v>1434.4</v>
+      </c>
+      <c r="P183">
+        <v>78989.2</v>
+      </c>
+      <c r="Q183">
+        <v>116180.6</v>
+      </c>
+      <c r="R183">
+        <v>1310.2</v>
+      </c>
+      <c r="S183">
+        <v>51815.2</v>
+      </c>
+      <c r="T183">
+        <v>17895.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184">
+        <v>34814.4</v>
+      </c>
+      <c r="C184">
+        <v>15161.5</v>
+      </c>
+      <c r="D184">
+        <v>7016.5</v>
+      </c>
+      <c r="E184">
+        <v>30511.7</v>
+      </c>
+      <c r="F184">
+        <v>6583.6</v>
+      </c>
+      <c r="G184">
+        <v>15616</v>
+      </c>
+      <c r="H184">
+        <v>3153.4</v>
+      </c>
+      <c r="I184">
+        <v>4867.3</v>
+      </c>
+      <c r="J184">
+        <v>1555.3</v>
+      </c>
+      <c r="K184">
+        <v>71711.5</v>
+      </c>
+      <c r="L184">
+        <v>4065.5</v>
+      </c>
+      <c r="M184">
+        <v>1628</v>
+      </c>
+      <c r="N184">
+        <v>17354</v>
+      </c>
+      <c r="O184">
+        <v>1424</v>
+      </c>
+      <c r="P184">
+        <v>78488.5</v>
+      </c>
+      <c r="Q184">
+        <v>115062.5</v>
+      </c>
+      <c r="R184">
+        <v>1322.1</v>
+      </c>
+      <c r="S184">
+        <v>52192.3</v>
+      </c>
+      <c r="T184">
+        <v>18008.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185">
+        <v>34751.3</v>
+      </c>
+      <c r="C185">
+        <v>15181.9</v>
+      </c>
+      <c r="D185">
+        <v>7027.5</v>
+      </c>
+      <c r="E185">
+        <v>30323.3</v>
+      </c>
+      <c r="F185">
+        <v>6622.6</v>
+      </c>
+      <c r="G185">
+        <v>15651.8</v>
+      </c>
+      <c r="H185">
+        <v>3130.1</v>
+      </c>
+      <c r="I185">
+        <v>4807.7</v>
+      </c>
+      <c r="K185">
+        <v>71674.7</v>
+      </c>
+      <c r="L185">
+        <v>4045.1</v>
+      </c>
+      <c r="M185">
+        <v>1631.7</v>
+      </c>
+      <c r="N185">
+        <v>17278.7</v>
+      </c>
+      <c r="O185">
+        <v>1418</v>
+      </c>
+      <c r="P185">
+        <v>79738.10000000001</v>
+      </c>
+      <c r="Q185">
+        <v>113794.3</v>
+      </c>
+      <c r="R185">
+        <v>1323.4</v>
+      </c>
+      <c r="T185">
+        <v>17885.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186">
+        <v>34584.9</v>
+      </c>
+      <c r="C186">
+        <v>15044</v>
+      </c>
+      <c r="D186">
+        <v>6963.6</v>
+      </c>
+      <c r="E186">
+        <v>30500.1</v>
+      </c>
+      <c r="F186">
+        <v>6570.2</v>
+      </c>
+      <c r="G186">
+        <v>15490.2</v>
+      </c>
+      <c r="H186">
+        <v>3140.5</v>
+      </c>
+      <c r="I186">
+        <v>4855.9</v>
+      </c>
+      <c r="J186">
+        <v>1548.5</v>
+      </c>
+      <c r="K186">
+        <v>71107.60000000001</v>
+      </c>
+      <c r="L186">
+        <v>4035.2</v>
+      </c>
+      <c r="M186">
+        <v>1625.7</v>
+      </c>
+      <c r="N186">
+        <v>17276.8</v>
+      </c>
+      <c r="O186">
+        <v>1419.4</v>
+      </c>
+      <c r="P186">
+        <v>78512.10000000001</v>
+      </c>
+      <c r="Q186">
+        <v>111439.4</v>
+      </c>
+      <c r="R186">
+        <v>1321.9</v>
+      </c>
+      <c r="S186">
+        <v>51307.7</v>
+      </c>
+      <c r="T186">
+        <v>17979.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187">
+        <v>6834.7</v>
+      </c>
+      <c r="F187">
+        <v>6394.2</v>
+      </c>
+      <c r="G187">
+        <v>15047.3</v>
+      </c>
+      <c r="J187">
+        <v>1527.9</v>
+      </c>
+      <c r="K187">
+        <v>69021.3</v>
+      </c>
+      <c r="L187">
+        <v>3958.9</v>
+      </c>
+      <c r="M187">
+        <v>1603.1</v>
+      </c>
+      <c r="O187">
+        <v>1387.1</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Serie</t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12102,29 +12117,318 @@
       <c r="A187" t="s">
         <v>205</v>
       </c>
+      <c r="B187">
+        <v>33970.5</v>
+      </c>
+      <c r="C187">
+        <v>14713.9</v>
+      </c>
       <c r="D187">
-        <v>6834.7</v>
+        <v>6903.9</v>
       </c>
       <c r="F187">
-        <v>6394.2</v>
+        <v>6455.8</v>
       </c>
       <c r="G187">
-        <v>15047.3</v>
+        <v>15132.1</v>
       </c>
       <c r="J187">
         <v>1527.9</v>
       </c>
       <c r="K187">
-        <v>69021.3</v>
+        <v>69144.39999999999</v>
       </c>
       <c r="L187">
-        <v>3958.9</v>
+        <v>3969.6</v>
       </c>
       <c r="M187">
         <v>1603.1</v>
       </c>
       <c r="O187">
-        <v>1387.1</v>
+        <v>1391.9</v>
+      </c>
+      <c r="P187">
+        <v>73635.2</v>
+      </c>
+      <c r="Q187">
+        <v>108843.7</v>
+      </c>
+      <c r="R187">
+        <v>1306.6</v>
+      </c>
+      <c r="S187">
+        <v>50557.7</v>
+      </c>
+      <c r="T187">
+        <v>17747</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188">
+        <v>33919.8</v>
+      </c>
+      <c r="C188">
+        <v>14746.4</v>
+      </c>
+      <c r="D188">
+        <v>6981</v>
+      </c>
+      <c r="E188">
+        <v>29839.7</v>
+      </c>
+      <c r="F188">
+        <v>6552.7</v>
+      </c>
+      <c r="G188">
+        <v>15348.5</v>
+      </c>
+      <c r="J188">
+        <v>1530.4</v>
+      </c>
+      <c r="K188">
+        <v>69420</v>
+      </c>
+      <c r="L188">
+        <v>3970.5</v>
+      </c>
+      <c r="M188">
+        <v>1614.9</v>
+      </c>
+      <c r="O188">
+        <v>1385.6</v>
+      </c>
+      <c r="P188">
+        <v>73918.60000000001</v>
+      </c>
+      <c r="Q188">
+        <v>110249.7</v>
+      </c>
+      <c r="R188">
+        <v>1301.5</v>
+      </c>
+      <c r="S188">
+        <v>50828.1</v>
+      </c>
+      <c r="T188">
+        <v>17869.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189">
+        <v>34258.3</v>
+      </c>
+      <c r="C189">
+        <v>14896.9</v>
+      </c>
+      <c r="D189">
+        <v>7083.4</v>
+      </c>
+      <c r="E189">
+        <v>29639.4</v>
+      </c>
+      <c r="F189">
+        <v>6637</v>
+      </c>
+      <c r="G189">
+        <v>15506.7</v>
+      </c>
+      <c r="I189">
+        <v>4821.8</v>
+      </c>
+      <c r="J189">
+        <v>1529</v>
+      </c>
+      <c r="K189">
+        <v>70950.8</v>
+      </c>
+      <c r="L189">
+        <v>4031</v>
+      </c>
+      <c r="M189">
+        <v>1619.6</v>
+      </c>
+      <c r="N189">
+        <v>16925.8</v>
+      </c>
+      <c r="O189">
+        <v>1407.5</v>
+      </c>
+      <c r="P189">
+        <v>74750.2</v>
+      </c>
+      <c r="Q189">
+        <v>112282.3</v>
+      </c>
+      <c r="R189">
+        <v>1310.3</v>
+      </c>
+      <c r="S189">
+        <v>51338.3</v>
+      </c>
+      <c r="T189">
+        <v>18099.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190">
+        <v>34764.8</v>
+      </c>
+      <c r="C190">
+        <v>15052.2</v>
+      </c>
+      <c r="D190">
+        <v>7078.4</v>
+      </c>
+      <c r="F190">
+        <v>6702</v>
+      </c>
+      <c r="G190">
+        <v>15644</v>
+      </c>
+      <c r="H190">
+        <v>3127.6</v>
+      </c>
+      <c r="I190">
+        <v>4853.2</v>
+      </c>
+      <c r="J190">
+        <v>1539.3</v>
+      </c>
+      <c r="K190">
+        <v>70725.5</v>
+      </c>
+      <c r="L190">
+        <v>4052.1</v>
+      </c>
+      <c r="M190">
+        <v>1631.2</v>
+      </c>
+      <c r="N190">
+        <v>17078.2</v>
+      </c>
+      <c r="O190">
+        <v>1401.5</v>
+      </c>
+      <c r="P190">
+        <v>74743.39999999999</v>
+      </c>
+      <c r="Q190">
+        <v>114064.4</v>
+      </c>
+      <c r="R190">
+        <v>1312.2</v>
+      </c>
+      <c r="S190">
+        <v>51464.3</v>
+      </c>
+      <c r="T190">
+        <v>18208.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191">
+        <v>34798</v>
+      </c>
+      <c r="C191">
+        <v>15047.7</v>
+      </c>
+      <c r="D191">
+        <v>7051.5</v>
+      </c>
+      <c r="E191">
+        <v>30248.8</v>
+      </c>
+      <c r="F191">
+        <v>6638.5</v>
+      </c>
+      <c r="G191">
+        <v>15531.8</v>
+      </c>
+      <c r="H191">
+        <v>3125.2</v>
+      </c>
+      <c r="I191">
+        <v>4849.4</v>
+      </c>
+      <c r="J191">
+        <v>1532.1</v>
+      </c>
+      <c r="K191">
+        <v>70162.60000000001</v>
+      </c>
+      <c r="L191">
+        <v>4038.2</v>
+      </c>
+      <c r="N191">
+        <v>17260.2</v>
+      </c>
+      <c r="O191">
+        <v>1384.7</v>
+      </c>
+      <c r="P191">
+        <v>74180.2</v>
+      </c>
+      <c r="Q191">
+        <v>113282.7</v>
+      </c>
+      <c r="R191">
+        <v>1309.4</v>
+      </c>
+      <c r="S191">
+        <v>51105.7</v>
+      </c>
+      <c r="T191">
+        <v>18308.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" t="s">
+        <v>210</v>
+      </c>
+      <c r="D192">
+        <v>7065.6</v>
+      </c>
+      <c r="E192">
+        <v>30240.1</v>
+      </c>
+      <c r="F192">
+        <v>6668</v>
+      </c>
+      <c r="G192">
+        <v>15629.2</v>
+      </c>
+      <c r="H192">
+        <v>3133.6</v>
+      </c>
+      <c r="I192">
+        <v>4877.4</v>
+      </c>
+      <c r="J192">
+        <v>1533.1</v>
+      </c>
+      <c r="K192">
+        <v>70367.10000000001</v>
+      </c>
+      <c r="M192">
+        <v>1620</v>
+      </c>
+      <c r="N192">
+        <v>17313.8</v>
+      </c>
+      <c r="O192">
+        <v>1395</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,21 @@
   </si>
   <si>
     <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12397,17 +12412,23 @@
       <c r="A192" t="s">
         <v>210</v>
       </c>
+      <c r="B192">
+        <v>34869.4</v>
+      </c>
+      <c r="C192">
+        <v>14970</v>
+      </c>
       <c r="D192">
-        <v>7065.6</v>
+        <v>7063.4</v>
       </c>
       <c r="E192">
         <v>30240.1</v>
       </c>
       <c r="F192">
-        <v>6668</v>
+        <v>6650.9</v>
       </c>
       <c r="G192">
-        <v>15629.2</v>
+        <v>15573.9</v>
       </c>
       <c r="H192">
         <v>3133.6</v>
@@ -12419,7 +12440,10 @@
         <v>1533.1</v>
       </c>
       <c r="K192">
-        <v>70367.10000000001</v>
+        <v>70027.10000000001</v>
+      </c>
+      <c r="L192">
+        <v>4069.6</v>
       </c>
       <c r="M192">
         <v>1620</v>
@@ -12428,7 +12452,302 @@
         <v>17313.8</v>
       </c>
       <c r="O192">
-        <v>1395</v>
+        <v>1391.7</v>
+      </c>
+      <c r="P192">
+        <v>75687.5</v>
+      </c>
+      <c r="Q192">
+        <v>113583</v>
+      </c>
+      <c r="R192">
+        <v>1345.4</v>
+      </c>
+      <c r="S192">
+        <v>51598.5</v>
+      </c>
+      <c r="T192">
+        <v>18653.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="A193" t="s">
+        <v>211</v>
+      </c>
+      <c r="B193">
+        <v>34300</v>
+      </c>
+      <c r="C193">
+        <v>14546.7</v>
+      </c>
+      <c r="D193">
+        <v>7028.1</v>
+      </c>
+      <c r="E193">
+        <v>30184</v>
+      </c>
+      <c r="F193">
+        <v>6506.5</v>
+      </c>
+      <c r="G193">
+        <v>15248.6</v>
+      </c>
+      <c r="H193">
+        <v>3097.9</v>
+      </c>
+      <c r="I193">
+        <v>4883.8</v>
+      </c>
+      <c r="J193">
+        <v>1546.8</v>
+      </c>
+      <c r="K193">
+        <v>69440.5</v>
+      </c>
+      <c r="L193">
+        <v>4109.7</v>
+      </c>
+      <c r="M193">
+        <v>1616.5</v>
+      </c>
+      <c r="N193">
+        <v>17181.4</v>
+      </c>
+      <c r="O193">
+        <v>1383.8</v>
+      </c>
+      <c r="P193">
+        <v>75808.39999999999</v>
+      </c>
+      <c r="Q193">
+        <v>110123.9</v>
+      </c>
+      <c r="R193">
+        <v>1350.5</v>
+      </c>
+      <c r="S193">
+        <v>50925.5</v>
+      </c>
+      <c r="T193">
+        <v>18515.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" t="s">
+        <v>212</v>
+      </c>
+      <c r="B194">
+        <v>34390.7</v>
+      </c>
+      <c r="C194">
+        <v>14512.4</v>
+      </c>
+      <c r="D194">
+        <v>7108.2</v>
+      </c>
+      <c r="E194">
+        <v>29544.3</v>
+      </c>
+      <c r="F194">
+        <v>6560.8</v>
+      </c>
+      <c r="G194">
+        <v>15365.3</v>
+      </c>
+      <c r="H194">
+        <v>3060.3</v>
+      </c>
+      <c r="I194">
+        <v>4833.9</v>
+      </c>
+      <c r="J194">
+        <v>1547.7</v>
+      </c>
+      <c r="K194">
+        <v>69871.39999999999</v>
+      </c>
+      <c r="L194">
+        <v>4045.2</v>
+      </c>
+      <c r="M194">
+        <v>1617</v>
+      </c>
+      <c r="N194">
+        <v>16855.5</v>
+      </c>
+      <c r="O194">
+        <v>1391.9</v>
+      </c>
+      <c r="P194">
+        <v>76589.3</v>
+      </c>
+      <c r="Q194">
+        <v>111106.8</v>
+      </c>
+      <c r="R194">
+        <v>1360.4</v>
+      </c>
+      <c r="S194">
+        <v>51084.6</v>
+      </c>
+      <c r="T194">
+        <v>18458.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="B195">
+        <v>33843.9</v>
+      </c>
+      <c r="C195">
+        <v>14448.6</v>
+      </c>
+      <c r="D195">
+        <v>7086.4</v>
+      </c>
+      <c r="E195">
+        <v>29452.7</v>
+      </c>
+      <c r="F195">
+        <v>6520</v>
+      </c>
+      <c r="G195">
+        <v>15260.7</v>
+      </c>
+      <c r="H195">
+        <v>3068.8</v>
+      </c>
+      <c r="I195">
+        <v>4866.4</v>
+      </c>
+      <c r="J195">
+        <v>1537.8</v>
+      </c>
+      <c r="K195">
+        <v>70340.89999999999</v>
+      </c>
+      <c r="L195">
+        <v>4079.5</v>
+      </c>
+      <c r="M195">
+        <v>1605.7</v>
+      </c>
+      <c r="N195">
+        <v>16934.8</v>
+      </c>
+      <c r="O195">
+        <v>1406.4</v>
+      </c>
+      <c r="P195">
+        <v>77363.60000000001</v>
+      </c>
+      <c r="Q195">
+        <v>110979.1</v>
+      </c>
+      <c r="R195">
+        <v>1362</v>
+      </c>
+      <c r="S195">
+        <v>51385.6</v>
+      </c>
+      <c r="T195">
+        <v>18279.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196">
+        <v>34326.5</v>
+      </c>
+      <c r="C196">
+        <v>14566.7</v>
+      </c>
+      <c r="D196">
+        <v>7027.1</v>
+      </c>
+      <c r="E196">
+        <v>28771.1</v>
+      </c>
+      <c r="F196">
+        <v>6517.7</v>
+      </c>
+      <c r="G196">
+        <v>15156.4</v>
+      </c>
+      <c r="H196">
+        <v>3019.2</v>
+      </c>
+      <c r="J196">
+        <v>1524.5</v>
+      </c>
+      <c r="K196">
+        <v>70812</v>
+      </c>
+      <c r="L196">
+        <v>4078.6</v>
+      </c>
+      <c r="M196">
+        <v>1605.2</v>
+      </c>
+      <c r="N196">
+        <v>16570.9</v>
+      </c>
+      <c r="O196">
+        <v>1401.5</v>
+      </c>
+      <c r="P196">
+        <v>77626.2</v>
+      </c>
+      <c r="Q196">
+        <v>112899.6</v>
+      </c>
+      <c r="R196">
+        <v>1370.3</v>
+      </c>
+      <c r="S196">
+        <v>51060.1</v>
+      </c>
+      <c r="T196">
+        <v>18348.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197">
+        <v>7022.8</v>
+      </c>
+      <c r="E197">
+        <v>28444.9</v>
+      </c>
+      <c r="F197">
+        <v>6509.6</v>
+      </c>
+      <c r="G197">
+        <v>15119.6</v>
+      </c>
+      <c r="J197">
+        <v>1522.5</v>
+      </c>
+      <c r="K197">
+        <v>71105.3</v>
+      </c>
+      <c r="L197">
+        <v>4124.6</v>
+      </c>
+      <c r="M197">
+        <v>1614.5</v>
+      </c>
+      <c r="N197">
+        <v>16408.4</v>
+      </c>
+      <c r="O197">
+        <v>1404.7</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,24 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T197"/>
+  <dimension ref="A1:T203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12719,26 +12737,32 @@
       <c r="A197" t="s">
         <v>215</v>
       </c>
+      <c r="B197">
+        <v>34002.9</v>
+      </c>
+      <c r="C197">
+        <v>14255.5</v>
+      </c>
       <c r="D197">
-        <v>7022.8</v>
+        <v>7011</v>
       </c>
       <c r="E197">
         <v>28444.9</v>
       </c>
       <c r="F197">
-        <v>6509.6</v>
+        <v>6477.7</v>
       </c>
       <c r="G197">
-        <v>15119.6</v>
+        <v>15036.6</v>
       </c>
       <c r="J197">
         <v>1522.5</v>
       </c>
       <c r="K197">
-        <v>71105.3</v>
+        <v>71265.39999999999</v>
       </c>
       <c r="L197">
-        <v>4124.6</v>
+        <v>4112.7</v>
       </c>
       <c r="M197">
         <v>1614.5</v>
@@ -12747,7 +12771,349 @@
         <v>16408.4</v>
       </c>
       <c r="O197">
-        <v>1404.7</v>
+        <v>1394.4</v>
+      </c>
+      <c r="P197">
+        <v>77578.89999999999</v>
+      </c>
+      <c r="Q197">
+        <v>110393.1</v>
+      </c>
+      <c r="R197">
+        <v>1381.8</v>
+      </c>
+      <c r="S197">
+        <v>50862.9</v>
+      </c>
+      <c r="T197">
+        <v>18192.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198">
+        <v>34314.7</v>
+      </c>
+      <c r="C198">
+        <v>14433.8</v>
+      </c>
+      <c r="D198">
+        <v>7077.1</v>
+      </c>
+      <c r="E198">
+        <v>27822.1</v>
+      </c>
+      <c r="F198">
+        <v>6576.3</v>
+      </c>
+      <c r="G198">
+        <v>15194.5</v>
+      </c>
+      <c r="H198">
+        <v>2962.2</v>
+      </c>
+      <c r="J198">
+        <v>1530.4</v>
+      </c>
+      <c r="K198">
+        <v>71940.5</v>
+      </c>
+      <c r="L198">
+        <v>4223.9</v>
+      </c>
+      <c r="M198">
+        <v>1624.2</v>
+      </c>
+      <c r="N198">
+        <v>16460.8</v>
+      </c>
+      <c r="O198">
+        <v>1391.7</v>
+      </c>
+      <c r="P198">
+        <v>78191.5</v>
+      </c>
+      <c r="Q198">
+        <v>110457.6</v>
+      </c>
+      <c r="R198">
+        <v>1383.2</v>
+      </c>
+      <c r="S198">
+        <v>51056.9</v>
+      </c>
+      <c r="T198">
+        <v>18342.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199">
+        <v>34417</v>
+      </c>
+      <c r="C199">
+        <v>14501.9</v>
+      </c>
+      <c r="D199">
+        <v>6995.9</v>
+      </c>
+      <c r="E199">
+        <v>27528.9</v>
+      </c>
+      <c r="F199">
+        <v>6493.1</v>
+      </c>
+      <c r="G199">
+        <v>14973.3</v>
+      </c>
+      <c r="H199">
+        <v>2908.3</v>
+      </c>
+      <c r="J199">
+        <v>1559.4</v>
+      </c>
+      <c r="K199">
+        <v>71789.3</v>
+      </c>
+      <c r="L199">
+        <v>4171.7</v>
+      </c>
+      <c r="M199">
+        <v>1619.5</v>
+      </c>
+      <c r="N199">
+        <v>16393.2</v>
+      </c>
+      <c r="O199">
+        <v>1371.7</v>
+      </c>
+      <c r="P199">
+        <v>77443.10000000001</v>
+      </c>
+      <c r="Q199">
+        <v>110559.6</v>
+      </c>
+      <c r="R199">
+        <v>1381.9</v>
+      </c>
+      <c r="S199">
+        <v>50974.5</v>
+      </c>
+      <c r="T199">
+        <v>18356.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>34754.9</v>
+      </c>
+      <c r="C200">
+        <v>14654</v>
+      </c>
+      <c r="D200">
+        <v>7078</v>
+      </c>
+      <c r="E200">
+        <v>27678.2</v>
+      </c>
+      <c r="F200">
+        <v>6600.2</v>
+      </c>
+      <c r="G200">
+        <v>15250.9</v>
+      </c>
+      <c r="H200">
+        <v>2959.5</v>
+      </c>
+      <c r="J200">
+        <v>1561.3</v>
+      </c>
+      <c r="K200">
+        <v>72124.89999999999</v>
+      </c>
+      <c r="L200">
+        <v>4228</v>
+      </c>
+      <c r="M200">
+        <v>1633.7</v>
+      </c>
+      <c r="N200">
+        <v>16713.9</v>
+      </c>
+      <c r="O200">
+        <v>1396.9</v>
+      </c>
+      <c r="P200">
+        <v>77553.3</v>
+      </c>
+      <c r="Q200">
+        <v>110585.4</v>
+      </c>
+      <c r="R200">
+        <v>1393.5</v>
+      </c>
+      <c r="S200">
+        <v>50877</v>
+      </c>
+      <c r="T200">
+        <v>19375.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201">
+        <v>34746.3</v>
+      </c>
+      <c r="C201">
+        <v>14579.5</v>
+      </c>
+      <c r="D201">
+        <v>7095.6</v>
+      </c>
+      <c r="E201">
+        <v>28048.9</v>
+      </c>
+      <c r="F201">
+        <v>6560</v>
+      </c>
+      <c r="G201">
+        <v>15206.1</v>
+      </c>
+      <c r="H201">
+        <v>2956.3</v>
+      </c>
+      <c r="I201">
+        <v>4929.9</v>
+      </c>
+      <c r="J201">
+        <v>1563.9</v>
+      </c>
+      <c r="K201">
+        <v>73327.7</v>
+      </c>
+      <c r="L201">
+        <v>4238</v>
+      </c>
+      <c r="M201">
+        <v>1639.4</v>
+      </c>
+      <c r="N201">
+        <v>16640.4</v>
+      </c>
+      <c r="O201">
+        <v>1398</v>
+      </c>
+      <c r="Q201">
+        <v>112833.2</v>
+      </c>
+      <c r="R201">
+        <v>1401</v>
+      </c>
+      <c r="S201">
+        <v>51136.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202">
+        <v>34496.1</v>
+      </c>
+      <c r="C202">
+        <v>14486.2</v>
+      </c>
+      <c r="D202">
+        <v>7146.9</v>
+      </c>
+      <c r="E202">
+        <v>28498.2</v>
+      </c>
+      <c r="F202">
+        <v>6570.5</v>
+      </c>
+      <c r="G202">
+        <v>15199.1</v>
+      </c>
+      <c r="I202">
+        <v>4936.2</v>
+      </c>
+      <c r="J202">
+        <v>1570.8</v>
+      </c>
+      <c r="K202">
+        <v>74459.89999999999</v>
+      </c>
+      <c r="L202">
+        <v>4279.9</v>
+      </c>
+      <c r="M202">
+        <v>1633.4</v>
+      </c>
+      <c r="O202">
+        <v>1416.3</v>
+      </c>
+      <c r="Q202">
+        <v>112180.5</v>
+      </c>
+      <c r="R202">
+        <v>1406.3</v>
+      </c>
+      <c r="S202">
+        <v>51646.8</v>
+      </c>
+      <c r="T202">
+        <v>19585.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" t="s">
+        <v>221</v>
+      </c>
+      <c r="D203">
+        <v>7113.3</v>
+      </c>
+      <c r="E203">
+        <v>28230.6</v>
+      </c>
+      <c r="F203">
+        <v>6536.1</v>
+      </c>
+      <c r="G203">
+        <v>15146.5</v>
+      </c>
+      <c r="H203">
+        <v>2916.4</v>
+      </c>
+      <c r="I203">
+        <v>4883.8</v>
+      </c>
+      <c r="J203">
+        <v>1583.9</v>
+      </c>
+      <c r="K203">
+        <v>74216.10000000001</v>
+      </c>
+      <c r="L203">
+        <v>4266</v>
+      </c>
+      <c r="M203">
+        <v>1643.6</v>
+      </c>
+      <c r="N203">
+        <v>16462.8</v>
+      </c>
+      <c r="O203">
+        <v>1420.2</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,33 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T203"/>
+  <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13079,17 +13106,23 @@
       <c r="A203" t="s">
         <v>221</v>
       </c>
+      <c r="B203">
+        <v>34378.3</v>
+      </c>
+      <c r="C203">
+        <v>14465.9</v>
+      </c>
       <c r="D203">
-        <v>7113.3</v>
+        <v>7130.2</v>
       </c>
       <c r="E203">
         <v>28230.6</v>
       </c>
       <c r="F203">
-        <v>6536.1</v>
+        <v>6548.1</v>
       </c>
       <c r="G203">
-        <v>15146.5</v>
+        <v>15146.9</v>
       </c>
       <c r="H203">
         <v>2916.4</v>
@@ -13101,10 +13134,10 @@
         <v>1583.9</v>
       </c>
       <c r="K203">
-        <v>74216.10000000001</v>
+        <v>74736.89999999999</v>
       </c>
       <c r="L203">
-        <v>4266</v>
+        <v>4263.8</v>
       </c>
       <c r="M203">
         <v>1643.6</v>
@@ -13113,7 +13146,544 @@
         <v>16462.8</v>
       </c>
       <c r="O203">
-        <v>1420.2</v>
+        <v>1416.8</v>
+      </c>
+      <c r="P203">
+        <v>77927.89999999999</v>
+      </c>
+      <c r="R203">
+        <v>1386.5</v>
+      </c>
+      <c r="S203">
+        <v>51835.9</v>
+      </c>
+      <c r="T203">
+        <v>19731.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204">
+        <v>34377.8</v>
+      </c>
+      <c r="C204">
+        <v>14571.6</v>
+      </c>
+      <c r="D204">
+        <v>7141.8</v>
+      </c>
+      <c r="E204">
+        <v>28140.3</v>
+      </c>
+      <c r="F204">
+        <v>6597.4</v>
+      </c>
+      <c r="G204">
+        <v>15249.4</v>
+      </c>
+      <c r="H204">
+        <v>2944.4</v>
+      </c>
+      <c r="I204">
+        <v>4940.1</v>
+      </c>
+      <c r="J204">
+        <v>1600.4</v>
+      </c>
+      <c r="K204">
+        <v>74283</v>
+      </c>
+      <c r="L204">
+        <v>4243.9</v>
+      </c>
+      <c r="N204">
+        <v>16348</v>
+      </c>
+      <c r="O204">
+        <v>1413.5</v>
+      </c>
+      <c r="P204">
+        <v>78427.89999999999</v>
+      </c>
+      <c r="Q204">
+        <v>113455.9</v>
+      </c>
+      <c r="R204">
+        <v>1394.2</v>
+      </c>
+      <c r="S204">
+        <v>51812.9</v>
+      </c>
+      <c r="T204">
+        <v>19694.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205">
+        <v>34912.6</v>
+      </c>
+      <c r="C205">
+        <v>14823.4</v>
+      </c>
+      <c r="D205">
+        <v>7207.7</v>
+      </c>
+      <c r="E205">
+        <v>28550.9</v>
+      </c>
+      <c r="F205">
+        <v>6685.2</v>
+      </c>
+      <c r="G205">
+        <v>15462.7</v>
+      </c>
+      <c r="H205">
+        <v>2988.6</v>
+      </c>
+      <c r="I205">
+        <v>4913.6</v>
+      </c>
+      <c r="J205">
+        <v>1592.5</v>
+      </c>
+      <c r="K205">
+        <v>74524.8</v>
+      </c>
+      <c r="L205">
+        <v>4259.1</v>
+      </c>
+      <c r="M205">
+        <v>1641</v>
+      </c>
+      <c r="N205">
+        <v>16387.3</v>
+      </c>
+      <c r="O205">
+        <v>1411.8</v>
+      </c>
+      <c r="P205">
+        <v>80138</v>
+      </c>
+      <c r="Q205">
+        <v>113185.5</v>
+      </c>
+      <c r="R205">
+        <v>1416.7</v>
+      </c>
+      <c r="S205">
+        <v>52140.2</v>
+      </c>
+      <c r="T205">
+        <v>19745.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206">
+        <v>35294.8</v>
+      </c>
+      <c r="C206">
+        <v>14897.3</v>
+      </c>
+      <c r="D206">
+        <v>7234</v>
+      </c>
+      <c r="E206">
+        <v>29068.6</v>
+      </c>
+      <c r="F206">
+        <v>6727.5</v>
+      </c>
+      <c r="G206">
+        <v>15587.4</v>
+      </c>
+      <c r="H206">
+        <v>3015.1</v>
+      </c>
+      <c r="I206">
+        <v>4932.1</v>
+      </c>
+      <c r="J206">
+        <v>1598.3</v>
+      </c>
+      <c r="K206">
+        <v>74444.8</v>
+      </c>
+      <c r="L206">
+        <v>4261.8</v>
+      </c>
+      <c r="M206">
+        <v>1638.3</v>
+      </c>
+      <c r="N206">
+        <v>16781.2</v>
+      </c>
+      <c r="O206">
+        <v>1409.6</v>
+      </c>
+      <c r="P206">
+        <v>81990.2</v>
+      </c>
+      <c r="Q206">
+        <v>114648</v>
+      </c>
+      <c r="R206">
+        <v>1426.2</v>
+      </c>
+      <c r="S206">
+        <v>52798.4</v>
+      </c>
+      <c r="T206">
+        <v>20489.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207">
+        <v>35258.6</v>
+      </c>
+      <c r="C207">
+        <v>15021.8</v>
+      </c>
+      <c r="D207">
+        <v>7203.8</v>
+      </c>
+      <c r="E207">
+        <v>29025.5</v>
+      </c>
+      <c r="F207">
+        <v>6673.1</v>
+      </c>
+      <c r="G207">
+        <v>15474.5</v>
+      </c>
+      <c r="H207">
+        <v>3006.7</v>
+      </c>
+      <c r="I207">
+        <v>4874.8</v>
+      </c>
+      <c r="J207">
+        <v>1606</v>
+      </c>
+      <c r="K207">
+        <v>74651.8</v>
+      </c>
+      <c r="L207">
+        <v>4248.3</v>
+      </c>
+      <c r="M207">
+        <v>1643.9</v>
+      </c>
+      <c r="N207">
+        <v>16705.5</v>
+      </c>
+      <c r="O207">
+        <v>1417.7</v>
+      </c>
+      <c r="P207">
+        <v>82859.7</v>
+      </c>
+      <c r="Q207">
+        <v>114428.2</v>
+      </c>
+      <c r="S207">
+        <v>52686</v>
+      </c>
+      <c r="T207">
+        <v>20559.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208">
+        <v>35457.3</v>
+      </c>
+      <c r="C208">
+        <v>15129.1</v>
+      </c>
+      <c r="D208">
+        <v>7217.5</v>
+      </c>
+      <c r="E208">
+        <v>29215.5</v>
+      </c>
+      <c r="F208">
+        <v>6669.9</v>
+      </c>
+      <c r="G208">
+        <v>15515.8</v>
+      </c>
+      <c r="H208">
+        <v>3029</v>
+      </c>
+      <c r="I208">
+        <v>4922.7</v>
+      </c>
+      <c r="K208">
+        <v>74298.8</v>
+      </c>
+      <c r="L208">
+        <v>4276.3</v>
+      </c>
+      <c r="M208">
+        <v>1630.4</v>
+      </c>
+      <c r="N208">
+        <v>16900.7</v>
+      </c>
+      <c r="O208">
+        <v>1429.9</v>
+      </c>
+      <c r="P208">
+        <v>84308</v>
+      </c>
+      <c r="Q208">
+        <v>110672.8</v>
+      </c>
+      <c r="R208">
+        <v>1416.5</v>
+      </c>
+      <c r="S208">
+        <v>52402.7</v>
+      </c>
+      <c r="T208">
+        <v>20679.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209">
+        <v>35609.3</v>
+      </c>
+      <c r="C209">
+        <v>15121.7</v>
+      </c>
+      <c r="D209">
+        <v>7223.1</v>
+      </c>
+      <c r="E209">
+        <v>29255.6</v>
+      </c>
+      <c r="F209">
+        <v>6705.6</v>
+      </c>
+      <c r="G209">
+        <v>15522.9</v>
+      </c>
+      <c r="H209">
+        <v>3013.1</v>
+      </c>
+      <c r="I209">
+        <v>4910.2</v>
+      </c>
+      <c r="J209">
+        <v>1606.3</v>
+      </c>
+      <c r="K209">
+        <v>74222.39999999999</v>
+      </c>
+      <c r="L209">
+        <v>4287.5</v>
+      </c>
+      <c r="M209">
+        <v>1637.6</v>
+      </c>
+      <c r="N209">
+        <v>16887.8</v>
+      </c>
+      <c r="O209">
+        <v>1432.8</v>
+      </c>
+      <c r="P209">
+        <v>87055.7</v>
+      </c>
+      <c r="Q209">
+        <v>110786.4</v>
+      </c>
+      <c r="R209">
+        <v>1414.1</v>
+      </c>
+      <c r="S209">
+        <v>52298.2</v>
+      </c>
+      <c r="T209">
+        <v>20807.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210">
+        <v>35603.1</v>
+      </c>
+      <c r="C210">
+        <v>15215.7</v>
+      </c>
+      <c r="D210">
+        <v>7190.3</v>
+      </c>
+      <c r="E210">
+        <v>28708.6</v>
+      </c>
+      <c r="F210">
+        <v>6686.2</v>
+      </c>
+      <c r="G210">
+        <v>15472.6</v>
+      </c>
+      <c r="H210">
+        <v>3007.3</v>
+      </c>
+      <c r="I210">
+        <v>4928</v>
+      </c>
+      <c r="J210">
+        <v>1591.6</v>
+      </c>
+      <c r="K210">
+        <v>73818.5</v>
+      </c>
+      <c r="L210">
+        <v>4218.6</v>
+      </c>
+      <c r="M210">
+        <v>1643.4</v>
+      </c>
+      <c r="N210">
+        <v>16889.5</v>
+      </c>
+      <c r="O210">
+        <v>1455.4</v>
+      </c>
+      <c r="P210">
+        <v>86795.3</v>
+      </c>
+      <c r="Q210">
+        <v>107735</v>
+      </c>
+      <c r="R210">
+        <v>1410.2</v>
+      </c>
+      <c r="S210">
+        <v>52020.1</v>
+      </c>
+      <c r="T210">
+        <v>20859.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211">
+        <v>35677</v>
+      </c>
+      <c r="C211">
+        <v>15090.2</v>
+      </c>
+      <c r="D211">
+        <v>7204.6</v>
+      </c>
+      <c r="E211">
+        <v>28804.9</v>
+      </c>
+      <c r="F211">
+        <v>6733.7</v>
+      </c>
+      <c r="G211">
+        <v>15543</v>
+      </c>
+      <c r="H211">
+        <v>3006.2</v>
+      </c>
+      <c r="I211">
+        <v>4959.7</v>
+      </c>
+      <c r="J211">
+        <v>1588.1</v>
+      </c>
+      <c r="K211">
+        <v>73602.10000000001</v>
+      </c>
+      <c r="L211">
+        <v>4197</v>
+      </c>
+      <c r="N211">
+        <v>16888.7</v>
+      </c>
+      <c r="O211">
+        <v>1479.9</v>
+      </c>
+      <c r="P211">
+        <v>86898.5</v>
+      </c>
+      <c r="Q211">
+        <v>106296.2</v>
+      </c>
+      <c r="R211">
+        <v>1399.6</v>
+      </c>
+      <c r="S211">
+        <v>51889.7</v>
+      </c>
+      <c r="T211">
+        <v>20960.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" t="s">
+        <v>230</v>
+      </c>
+      <c r="D212">
+        <v>7239.4</v>
+      </c>
+      <c r="E212">
+        <v>28600.4</v>
+      </c>
+      <c r="F212">
+        <v>6728.7</v>
+      </c>
+      <c r="G212">
+        <v>15584.1</v>
+      </c>
+      <c r="H212">
+        <v>3020.5</v>
+      </c>
+      <c r="I212">
+        <v>4979.5</v>
+      </c>
+      <c r="J212">
+        <v>1587.9</v>
+      </c>
+      <c r="K212">
+        <v>73742.5</v>
+      </c>
+      <c r="L212">
+        <v>4218</v>
+      </c>
+      <c r="M212">
+        <v>1634.2</v>
+      </c>
+      <c r="N212">
+        <v>16894.2</v>
+      </c>
+      <c r="O212">
+        <v>1483.2</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,24 @@
   </si>
   <si>
     <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T212"/>
+  <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13649,17 +13667,23 @@
       <c r="A212" t="s">
         <v>230</v>
       </c>
+      <c r="B212">
+        <v>35741.2</v>
+      </c>
+      <c r="C212">
+        <v>15226.7</v>
+      </c>
       <c r="D212">
-        <v>7239.4</v>
+        <v>7222.8</v>
       </c>
       <c r="E212">
         <v>28600.4</v>
       </c>
       <c r="F212">
-        <v>6728.7</v>
+        <v>6712.9</v>
       </c>
       <c r="G212">
-        <v>15584.1</v>
+        <v>15599.2</v>
       </c>
       <c r="H212">
         <v>3020.5</v>
@@ -13671,10 +13695,10 @@
         <v>1587.9</v>
       </c>
       <c r="K212">
-        <v>73742.5</v>
+        <v>73876.39999999999</v>
       </c>
       <c r="L212">
-        <v>4218</v>
+        <v>4255</v>
       </c>
       <c r="M212">
         <v>1634.2</v>
@@ -13683,7 +13707,361 @@
         <v>16894.2</v>
       </c>
       <c r="O212">
-        <v>1483.2</v>
+        <v>1492.9</v>
+      </c>
+      <c r="P212">
+        <v>89391.8</v>
+      </c>
+      <c r="Q212">
+        <v>108714.6</v>
+      </c>
+      <c r="R212">
+        <v>1402</v>
+      </c>
+      <c r="S212">
+        <v>51833.8</v>
+      </c>
+      <c r="T212">
+        <v>21243.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213">
+        <v>35756.9</v>
+      </c>
+      <c r="C213">
+        <v>15235.7</v>
+      </c>
+      <c r="D213">
+        <v>7277.6</v>
+      </c>
+      <c r="E213">
+        <v>29106</v>
+      </c>
+      <c r="F213">
+        <v>6766.5</v>
+      </c>
+      <c r="G213">
+        <v>15757.1</v>
+      </c>
+      <c r="H213">
+        <v>3049.1</v>
+      </c>
+      <c r="I213">
+        <v>4963.1</v>
+      </c>
+      <c r="J213">
+        <v>1584.2</v>
+      </c>
+      <c r="K213">
+        <v>73909.39999999999</v>
+      </c>
+      <c r="L213">
+        <v>4235.9</v>
+      </c>
+      <c r="M213">
+        <v>1636</v>
+      </c>
+      <c r="N213">
+        <v>17034.3</v>
+      </c>
+      <c r="O213">
+        <v>1509.2</v>
+      </c>
+      <c r="P213">
+        <v>88907.8</v>
+      </c>
+      <c r="Q213">
+        <v>106419.5</v>
+      </c>
+      <c r="R213">
+        <v>1413.3</v>
+      </c>
+      <c r="S213">
+        <v>52206.6</v>
+      </c>
+      <c r="T213">
+        <v>21005.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214">
+        <v>35490.7</v>
+      </c>
+      <c r="C214">
+        <v>15235.8</v>
+      </c>
+      <c r="D214">
+        <v>7253.3</v>
+      </c>
+      <c r="E214">
+        <v>29098.2</v>
+      </c>
+      <c r="F214">
+        <v>6753.5</v>
+      </c>
+      <c r="G214">
+        <v>15705.8</v>
+      </c>
+      <c r="H214">
+        <v>3025.5</v>
+      </c>
+      <c r="I214">
+        <v>4898.2</v>
+      </c>
+      <c r="J214">
+        <v>1583.1</v>
+      </c>
+      <c r="K214">
+        <v>73377.89999999999</v>
+      </c>
+      <c r="L214">
+        <v>4229.5</v>
+      </c>
+      <c r="M214">
+        <v>1627.6</v>
+      </c>
+      <c r="N214">
+        <v>17074.6</v>
+      </c>
+      <c r="O214">
+        <v>1519.3</v>
+      </c>
+      <c r="P214">
+        <v>85353.10000000001</v>
+      </c>
+      <c r="Q214">
+        <v>106363.1</v>
+      </c>
+      <c r="R214">
+        <v>1404.1</v>
+      </c>
+      <c r="S214">
+        <v>51714.6</v>
+      </c>
+      <c r="T214">
+        <v>20885.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215">
+        <v>35730.5</v>
+      </c>
+      <c r="C215">
+        <v>15448.1</v>
+      </c>
+      <c r="D215">
+        <v>7249.5</v>
+      </c>
+      <c r="E215">
+        <v>28820.1</v>
+      </c>
+      <c r="F215">
+        <v>6804.2</v>
+      </c>
+      <c r="G215">
+        <v>15696.3</v>
+      </c>
+      <c r="H215">
+        <v>3009.6</v>
+      </c>
+      <c r="I215">
+        <v>4864.1</v>
+      </c>
+      <c r="J215">
+        <v>1566.9</v>
+      </c>
+      <c r="K215">
+        <v>73217.39999999999</v>
+      </c>
+      <c r="L215">
+        <v>4189.7</v>
+      </c>
+      <c r="M215">
+        <v>1624.3</v>
+      </c>
+      <c r="N215">
+        <v>17041.6</v>
+      </c>
+      <c r="O215">
+        <v>1522</v>
+      </c>
+      <c r="P215">
+        <v>86034.2</v>
+      </c>
+      <c r="Q215">
+        <v>105705</v>
+      </c>
+      <c r="R215">
+        <v>1407.9</v>
+      </c>
+      <c r="S215">
+        <v>51248.8</v>
+      </c>
+      <c r="T215">
+        <v>20959.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216">
+        <v>35819.6</v>
+      </c>
+      <c r="C216">
+        <v>15498.4</v>
+      </c>
+      <c r="D216">
+        <v>7237.6</v>
+      </c>
+      <c r="E216">
+        <v>28892.7</v>
+      </c>
+      <c r="F216">
+        <v>6830.3</v>
+      </c>
+      <c r="G216">
+        <v>15688.8</v>
+      </c>
+      <c r="H216">
+        <v>2970.7</v>
+      </c>
+      <c r="I216">
+        <v>4908.8</v>
+      </c>
+      <c r="J216">
+        <v>1562.3</v>
+      </c>
+      <c r="K216">
+        <v>73586.3</v>
+      </c>
+      <c r="L216">
+        <v>4150</v>
+      </c>
+      <c r="M216">
+        <v>1623.4</v>
+      </c>
+      <c r="N216">
+        <v>16987.4</v>
+      </c>
+      <c r="P216">
+        <v>83561</v>
+      </c>
+      <c r="Q216">
+        <v>103500.7</v>
+      </c>
+      <c r="R216">
+        <v>1394</v>
+      </c>
+      <c r="S216">
+        <v>51309.8</v>
+      </c>
+      <c r="T216">
+        <v>20737.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217">
+        <v>35913.8</v>
+      </c>
+      <c r="C217">
+        <v>15595.9</v>
+      </c>
+      <c r="D217">
+        <v>7288.6</v>
+      </c>
+      <c r="E217">
+        <v>29647.1</v>
+      </c>
+      <c r="F217">
+        <v>6893.3</v>
+      </c>
+      <c r="G217">
+        <v>15806.3</v>
+      </c>
+      <c r="H217">
+        <v>2978.9</v>
+      </c>
+      <c r="I217">
+        <v>4890.7</v>
+      </c>
+      <c r="J217">
+        <v>1530.9</v>
+      </c>
+      <c r="L217">
+        <v>4221.5</v>
+      </c>
+      <c r="M217">
+        <v>1613.8</v>
+      </c>
+      <c r="N217">
+        <v>17068.2</v>
+      </c>
+      <c r="O217">
+        <v>1536.3</v>
+      </c>
+      <c r="P217">
+        <v>87460.39999999999</v>
+      </c>
+      <c r="Q217">
+        <v>105550.9</v>
+      </c>
+      <c r="S217">
+        <v>51653.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" t="s">
+        <v>236</v>
+      </c>
+      <c r="D218">
+        <v>7248.8</v>
+      </c>
+      <c r="E218">
+        <v>29520.9</v>
+      </c>
+      <c r="F218">
+        <v>6910.8</v>
+      </c>
+      <c r="G218">
+        <v>15915.6</v>
+      </c>
+      <c r="H218">
+        <v>3013.5</v>
+      </c>
+      <c r="I218">
+        <v>4839.9</v>
+      </c>
+      <c r="J218">
+        <v>1537.6</v>
+      </c>
+      <c r="K218">
+        <v>73753.10000000001</v>
+      </c>
+      <c r="L218">
+        <v>4200.6</v>
+      </c>
+      <c r="M218">
+        <v>1617.9</v>
+      </c>
+      <c r="N218">
+        <v>17066</v>
+      </c>
+      <c r="O218">
+        <v>1536.4</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
+++ b/12/2/Índices de bolsas de comercio 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -725,6 +725,18 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T218"/>
+  <dimension ref="A1:T222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14027,17 +14039,23 @@
       <c r="A218" t="s">
         <v>236</v>
       </c>
+      <c r="B218">
+        <v>36052.6</v>
+      </c>
+      <c r="C218">
+        <v>15649.6</v>
+      </c>
       <c r="D218">
-        <v>7248.8</v>
+        <v>7274.8</v>
       </c>
       <c r="E218">
         <v>29520.9</v>
       </c>
       <c r="F218">
-        <v>6910.8</v>
+        <v>6927</v>
       </c>
       <c r="G218">
-        <v>15915.6</v>
+        <v>15954.5</v>
       </c>
       <c r="H218">
         <v>3013.5</v>
@@ -14049,10 +14067,10 @@
         <v>1537.6</v>
       </c>
       <c r="K218">
-        <v>73753.10000000001</v>
+        <v>73770</v>
       </c>
       <c r="L218">
-        <v>4200.6</v>
+        <v>4207.5</v>
       </c>
       <c r="M218">
         <v>1617.9</v>
@@ -14061,7 +14079,234 @@
         <v>17066</v>
       </c>
       <c r="O218">
-        <v>1536.4</v>
+        <v>1533.1</v>
+      </c>
+      <c r="P218">
+        <v>89273.10000000001</v>
+      </c>
+      <c r="R218">
+        <v>1390.5</v>
+      </c>
+      <c r="T218">
+        <v>20715.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219">
+        <v>36157.6</v>
+      </c>
+      <c r="C219">
+        <v>15811.6</v>
+      </c>
+      <c r="D219">
+        <v>7248.9</v>
+      </c>
+      <c r="F219">
+        <v>6950.7</v>
+      </c>
+      <c r="G219">
+        <v>15960</v>
+      </c>
+      <c r="H219">
+        <v>2975.7</v>
+      </c>
+      <c r="I219">
+        <v>4821.1</v>
+      </c>
+      <c r="J219">
+        <v>1531.3</v>
+      </c>
+      <c r="K219">
+        <v>72975.10000000001</v>
+      </c>
+      <c r="L219">
+        <v>4184.9</v>
+      </c>
+      <c r="M219">
+        <v>1611.9</v>
+      </c>
+      <c r="N219">
+        <v>17122.2</v>
+      </c>
+      <c r="O219">
+        <v>1547</v>
+      </c>
+      <c r="P219">
+        <v>92095</v>
+      </c>
+      <c r="Q219">
+        <v>105616.9</v>
+      </c>
+      <c r="R219">
+        <v>1404.5</v>
+      </c>
+      <c r="S219">
+        <v>51876.8</v>
+      </c>
+      <c r="T219">
+        <v>20528.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220">
+        <v>36124.2</v>
+      </c>
+      <c r="C220">
+        <v>15940.3</v>
+      </c>
+      <c r="D220">
+        <v>7279.9</v>
+      </c>
+      <c r="E220">
+        <v>29794.4</v>
+      </c>
+      <c r="F220">
+        <v>6987.8</v>
+      </c>
+      <c r="G220">
+        <v>16029.7</v>
+      </c>
+      <c r="H220">
+        <v>2983.2</v>
+      </c>
+      <c r="I220">
+        <v>4868.7</v>
+      </c>
+      <c r="K220">
+        <v>74659.5</v>
+      </c>
+      <c r="M220">
+        <v>1626.3</v>
+      </c>
+      <c r="N220">
+        <v>17078.9</v>
+      </c>
+      <c r="O220">
+        <v>1575.7</v>
+      </c>
+      <c r="P220">
+        <v>91258.2</v>
+      </c>
+      <c r="Q220">
+        <v>103412.1</v>
+      </c>
+      <c r="R220">
+        <v>1392.2</v>
+      </c>
+      <c r="S220">
+        <v>51873.5</v>
+      </c>
+      <c r="T220">
+        <v>20254.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" t="s">
+        <v>239</v>
+      </c>
+      <c r="B221">
+        <v>36328</v>
+      </c>
+      <c r="C221">
+        <v>15971.6</v>
+      </c>
+      <c r="D221">
+        <v>7304</v>
+      </c>
+      <c r="E221">
+        <v>29611.6</v>
+      </c>
+      <c r="F221">
+        <v>7040.8</v>
+      </c>
+      <c r="G221">
+        <v>16054.4</v>
+      </c>
+      <c r="H221">
+        <v>2969.3</v>
+      </c>
+      <c r="I221">
+        <v>4842.4</v>
+      </c>
+      <c r="J221">
+        <v>1531.7</v>
+      </c>
+      <c r="K221">
+        <v>74813.2</v>
+      </c>
+      <c r="L221">
+        <v>4174.8</v>
+      </c>
+      <c r="M221">
+        <v>1626.2</v>
+      </c>
+      <c r="N221">
+        <v>17296.9</v>
+      </c>
+      <c r="O221">
+        <v>1583.6</v>
+      </c>
+      <c r="P221">
+        <v>92895.89999999999</v>
+      </c>
+      <c r="Q221">
+        <v>104824.2</v>
+      </c>
+      <c r="R221">
+        <v>1388.6</v>
+      </c>
+      <c r="S221">
+        <v>51978</v>
+      </c>
+      <c r="T221">
+        <v>20420.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" t="s">
+        <v>240</v>
+      </c>
+      <c r="D222">
+        <v>7294.3</v>
+      </c>
+      <c r="E222">
+        <v>29507.1</v>
+      </c>
+      <c r="F222">
+        <v>7054.3</v>
+      </c>
+      <c r="G222">
+        <v>16019.7</v>
+      </c>
+      <c r="H222">
+        <v>2960.2</v>
+      </c>
+      <c r="I222">
+        <v>4848.2</v>
+      </c>
+      <c r="J222">
+        <v>1535.4</v>
+      </c>
+      <c r="K222">
+        <v>74499.3</v>
+      </c>
+      <c r="L222">
+        <v>4209</v>
+      </c>
+      <c r="M222">
+        <v>1626.1</v>
+      </c>
+      <c r="N222">
+        <v>17415.3</v>
+      </c>
+      <c r="O222">
+        <v>1591.8</v>
       </c>
     </row>
   </sheetData>
